--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\777_Mike_777\Project_Python\automatization_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71946B18-30E0-4067-8782-2C8C28D6D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30612C27-4512-4E4B-B0D9-EF988E8375F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Практика" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -861,4 +862,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F87AE8-947B-45FF-95C7-8377548F1BF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\777_Mike_777\Project_Python\automatization_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30612C27-4512-4E4B-B0D9-EF988E8375F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363BB525-D21B-43EE-B739-A96F610E548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Практика" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Темы" sheetId="3" r:id="rId2"/>
+    <sheet name="Данные" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
   <si>
     <t>ФИО</t>
   </si>
@@ -52,9 +62,6 @@
     <t>Истомин Никита Сергеевич</t>
   </si>
   <si>
-    <t>Костиогло' Пётр</t>
-  </si>
-  <si>
     <t>Крыжан Михаил Сергеевич</t>
   </si>
   <si>
@@ -82,18 +89,12 @@
     <t>Соловьёв Александр Александрович</t>
   </si>
   <si>
-    <t>Титов Артём  Арсенович</t>
-  </si>
-  <si>
     <t>Тхуж Максим Викторович</t>
   </si>
   <si>
     <t>Хамурзаев Арслан Висханович</t>
   </si>
   <si>
-    <t>Чилаев Бахром Бахромович</t>
-  </si>
-  <si>
     <t>Оценка</t>
   </si>
   <si>
@@ -110,9 +111,6 @@
   </si>
   <si>
     <t>ИС-2223Д</t>
-  </si>
-  <si>
-    <t>Курс</t>
   </si>
   <si>
     <t>Характеристика на 3</t>
@@ -142,30 +140,305 @@
 В целом, студент показал себя как учащийся, который нуждается в дополнительной поддержке и мотивации для достижения лучших результатов в своей профессиональной деятельности.</t>
   </si>
   <si>
+    <t>Собираемые данные</t>
+  </si>
+  <si>
+    <t>'FIO': FIO,</t>
+  </si>
+  <si>
+    <t>'signature': signature,</t>
+  </si>
+  <si>
+    <t>'score': score,</t>
+  </si>
+  <si>
+    <t>'start_date': start_date,</t>
+  </si>
+  <si>
+    <t>'start_month': start_month,</t>
+  </si>
+  <si>
+    <t>'start_day': start_day,</t>
+  </si>
+  <si>
+    <t>'end_date': end_date,</t>
+  </si>
+  <si>
+    <t>'end_month': end_month,</t>
+  </si>
+  <si>
+    <t>'end_day': end_day,</t>
+  </si>
+  <si>
+    <t>'group': group,</t>
+  </si>
+  <si>
+    <t>'course': course,</t>
+  </si>
+  <si>
+    <t>'description_for_student': description_for_student</t>
+  </si>
+  <si>
+    <t>count_day': count_day</t>
+  </si>
+  <si>
+    <t>current_year': current_year</t>
+  </si>
+  <si>
+    <t>Тип практики</t>
+  </si>
+  <si>
+    <t>date_work': date_work</t>
+  </si>
+  <si>
+    <t>content_work': content_work</t>
+  </si>
+  <si>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Птицефабрика»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Судоходная компания»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись на прием к терапевту»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись в автомастерскую»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись на занятия в коужок World Web-дизайн»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование и разработка мобильного приложения «Школа» </t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Студия маникюра»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Регистрация ДТП»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись на занятия по вокалу»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Музыка онлайн»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Каршеринг»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись к префекту района Покровское-Стрешнево»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Магазин антиквариата»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Книжный магазин»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Салон поддержанных авто»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись на лечебный массаж»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Цветочный магазин»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Кофейня»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование и разработка мобильного приложения «Запись на курсы профессиональной подготовки по профессии «Интернет-маркетолог» </t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Интернет-магазин по продаже сельскохозяйственной продукции»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись к мастеру ногтевого сервиса»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись в кружок дополнительного образования по направлению «Информационные технологии»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Запись в кружок дополнительного образования по направлению «IT-English»</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка мобильного приложения «Библиотека»</t>
+  </si>
+  <si>
+    <t>Темы для практики</t>
+  </si>
+  <si>
+    <t>ПМ.12 Выполнение работ по профессии “Оператор электронно-вычислительных и вычислительных машин”</t>
+  </si>
+  <si>
+    <t>Данные по практики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс </t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Количество дней практики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество пар практики </t>
+  </si>
+  <si>
+    <t>Количество часов практики</t>
+  </si>
+  <si>
+    <t>Содержание работ</t>
+  </si>
+  <si>
+    <t>Пдпись студента</t>
+  </si>
+  <si>
+    <t>ФИО студента</t>
+  </si>
+  <si>
+    <t>оценка за практику</t>
+  </si>
+  <si>
+    <t>Месяц начала практики</t>
+  </si>
+  <si>
+    <t>День начала практики</t>
+  </si>
+  <si>
+    <t>Месяц окончания практики</t>
+  </si>
+  <si>
+    <t>День окончания практики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер группы </t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t>Описание характеристики студента</t>
+  </si>
+  <si>
+    <t>Количество дней на практике</t>
+  </si>
+  <si>
+    <t>Текущий год</t>
+  </si>
+  <si>
+    <t>Выполенение работ по датам</t>
+  </si>
+  <si>
+    <t>Краткое описание</t>
+  </si>
+  <si>
+    <t>Данилин Иван Дмитриевич</t>
+  </si>
+  <si>
+    <t>Костиогло Пётр</t>
+  </si>
+  <si>
+    <t>Чилаев Бахром Бахромович</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Птицефабрика»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Судоходная компания»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись на прием к терапевту»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись в автомастерскую»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись на занятия в коужок World Web-дизайн»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка серверной и интерфейсной частей приложения «Школа» </t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Студия маникюра»</t>
+  </si>
+  <si>
+    <t>Истомин Матвей Сергеевич</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Регистрация ДТП»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись на занятия по вокалу»</t>
+  </si>
+  <si>
     <t>Капитонов Денис Сергеевич</t>
   </si>
   <si>
-    <t>Истомин Матвей Сергеевич</t>
+    <t>Разработка серверной и интерфейсной частей приложения «Музыка онлайн»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Каршеринг»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись к префекту района Покровское-Стрешнево»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Магазин антиквариата»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Книжный магазин»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Салон поддержанных авто»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись на лечебный массаж»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Цветочный магазин»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Кофейня»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка серверной и интерфейсной частей приложения «Запись на курсы профессиональной подготовки по профессии «Интернет-маркетолог» </t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Интернет-магазин по продаже сельскохозяйственной продукции»</t>
+  </si>
+  <si>
+    <t>Титов Артём  Арсенович</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись к мастеру ногтевого сервиса»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись в кружок дополнительного образования по направлению «Информационные технологии»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Запись в кружок дополнительного образования по направлению «IT-English»</t>
+  </si>
+  <si>
+    <t>Разработка серверной и интерфейсной частей приложения «Библиотека»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -198,8 +471,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,18 +498,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -251,43 +547,288 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -594,269 +1135,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="20">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="K2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45578</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="F6" s="10">
+        <v>45591</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="12">
+        <f>F6-F5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="20">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="12">
+        <f>F8*2</f>
+        <v>36</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="20">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
-        <v>45592</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45598</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2">
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"неуд"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" priority="3" operator="equal">
+      <formula>"не сдал"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"неуд"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -865,13 +1574,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F87AE8-947B-45FF-95C7-8377548F1BF9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128850EE-CA54-4AC1-A061-FCC102D489D8}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="152.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F87AE8-947B-45FF-95C7-8377548F1BF9}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>